--- a/public/FPSL_Draft_2023.xlsx
+++ b/public/FPSL_Draft_2023.xlsx
@@ -163,7 +163,7 @@
     <t>Greg Militello</t>
   </si>
   <si>
-    <t>leonard magargee</t>
+    <t>Leonard Magargee</t>
   </si>
   <si>
     <t>Mary Schweiker</t>
@@ -235,7 +235,7 @@
     <t>Chase Rawlins</t>
   </si>
   <si>
-    <t>Bethany  Eldridge</t>
+    <t>Bethany Eldridge</t>
   </si>
   <si>
     <t xml:space="preserve">Santiago Oliveros </t>
@@ -472,7 +472,7 @@
     <t>Bruce Bell</t>
   </si>
   <si>
-    <t xml:space="preserve">Angelina  Ngo </t>
+    <t xml:space="preserve">Angelina Ngo </t>
   </si>
   <si>
     <t>Raleigh Walter-Gores</t>
@@ -1024,7 +1024,7 @@
     <t>Caroline Bach</t>
   </si>
   <si>
-    <t>sophie ishiwari</t>
+    <t>Sophie Ishiwari</t>
   </si>
   <si>
     <t xml:space="preserve">Andi  Irizarry </t>
@@ -1066,7 +1066,7 @@
     <t>Patrick Shannon</t>
   </si>
   <si>
-    <t>Kristen  Mathieson</t>
+    <t>Kristen Mathieson</t>
   </si>
   <si>
     <t>August Eurich</t>
@@ -1150,7 +1150,7 @@
     <t>Gallagher // Blum</t>
   </si>
   <si>
-    <t>Luke  Greenley</t>
+    <t>Luke Greenley</t>
   </si>
   <si>
     <t>Alyssa Colella</t>
@@ -1189,7 +1189,7 @@
     <t>David Shapiro</t>
   </si>
   <si>
-    <t>Dylan ODonoghue</t>
+    <t>Dylan O'Donoghue</t>
   </si>
   <si>
     <t>Noel Abraham</t>
@@ -1231,7 +1231,7 @@
     <t>Jeffrey Hsieh</t>
   </si>
   <si>
-    <t xml:space="preserve">Lauren  Sitlinger </t>
+    <t xml:space="preserve">Lauren Sitlinger </t>
   </si>
   <si>
     <t>Cameron Moore</t>
@@ -1258,7 +1258,7 @@
     <t>Weiss // Jalil</t>
   </si>
   <si>
-    <t>owen murphy</t>
+    <t>Owen Murphy</t>
   </si>
   <si>
     <t>Jackie Weiss</t>
@@ -1405,7 +1405,7 @@
     <t>Ian Reger</t>
   </si>
   <si>
-    <t>Diana  Vu</t>
+    <t>Diana Vu</t>
   </si>
   <si>
     <t>Jennifer Vu</t>
@@ -1423,7 +1423,7 @@
     <t>Casey Thornton</t>
   </si>
   <si>
-    <t>Olivia  Steinberg</t>
+    <t>Olivia Steinberg</t>
   </si>
   <si>
     <t>Steve Rosso</t>
@@ -1549,7 +1549,7 @@
     <t>lora waldman</t>
   </si>
   <si>
-    <t>emma hamilton</t>
+    <t>Emma Hamilton</t>
   </si>
   <si>
     <t>Ryan Cornelius</t>
@@ -1822,10 +1822,10 @@
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2216,7 +2216,7 @@
       <c r="O3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="6" t="s">
         <v>50</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -2284,7 +2284,7 @@
       <c r="R4" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
       <c r="C5" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -2484,7 +2484,7 @@
       <c r="F8" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>131</v>
       </c>
       <c r="H8" s="3" t="s">
@@ -2549,13 +2549,13 @@
       <c r="H9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>151</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="6" t="s">
         <v>153</v>
       </c>
       <c r="L9" s="3" t="s">
@@ -3048,7 +3048,7 @@
       <c r="Q17" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>304</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -3104,7 +3104,7 @@
       <c r="P18" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="6" t="s">
         <v>321</v>
       </c>
       <c r="R18" s="3" t="s">
@@ -3157,7 +3157,7 @@
       <c r="N19" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="6" t="s">
         <v>337</v>
       </c>
       <c r="P19" s="3" t="s">
@@ -3204,7 +3204,7 @@
       <c r="J20" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="6" t="s">
         <v>351</v>
       </c>
       <c r="L20" s="3" t="s">
@@ -3298,7 +3298,7 @@
       <c r="B22" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="6" t="s">
         <v>379</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -3337,7 +3337,7 @@
       <c r="O22" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="6" t="s">
         <v>392</v>
       </c>
       <c r="Q22" s="3" t="s">
@@ -3384,7 +3384,7 @@
       <c r="K23" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="6" t="s">
         <v>406</v>
       </c>
       <c r="M23" s="3" t="s">
@@ -3416,7 +3416,7 @@
       <c r="B24" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="6" t="s">
         <v>415</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -3552,7 +3552,7 @@
       <c r="H26" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="6" t="s">
         <v>457</v>
       </c>
       <c r="J26" s="3" t="s">
@@ -3573,16 +3573,16 @@
       <c r="O26" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="P26" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="Q26" s="7" t="s">
+      <c r="Q26" s="6" t="s">
         <v>465</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="S26" s="7" t="s">
         <v>467</v>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       <c r="C27" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>470</v>
       </c>
       <c r="E27" s="8" t="s">
@@ -3732,7 +3732,7 @@
       <c r="I29" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="9" t="s">
         <v>512</v>
       </c>
       <c r="K29" s="8" t="s">

--- a/public/FPSL_Draft_2023.xlsx
+++ b/public/FPSL_Draft_2023.xlsx
@@ -1180,7 +1180,7 @@
     <t>Meghan McGrory</t>
   </si>
   <si>
-    <t>Emma  Abrams</t>
+    <t>Emma Abrams</t>
   </si>
   <si>
     <t>Caitlyn McGrory</t>
@@ -1699,7 +1699,7 @@
     <t>Colin Cahill</t>
   </si>
   <si>
-    <t>Linda  Morse</t>
+    <t>Linda Morse</t>
   </si>
   <si>
     <t>David Kelly</t>
@@ -3328,7 +3328,7 @@
       <c r="L22" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="6" t="s">
         <v>389</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -3897,7 +3897,7 @@
       <c r="E32" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>562</v>
       </c>
       <c r="G32" s="8" t="s">
